--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\PROYECTO1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\PROYECTO1\proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,11 +61,6 @@
 </t>
   </si>
   <si>
-    <t>- Planificación semanal
-- Generar ficheros en Github
-- Base de datos</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Estructurar página
 - Implementación del diseño
 </t>
@@ -80,6 +75,12 @@
   </si>
   <si>
     <t>Subir git/Copia de seguridad</t>
+  </si>
+  <si>
+    <t>- Planificación semanal
+- Generar ficheros en Github
+-Crear readme
+- Base de datos</t>
   </si>
 </sst>
 </file>
@@ -798,7 +799,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -865,7 +866,7 @@
     </row>
     <row r="8" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="20" t="s">
@@ -873,16 +874,16 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="30"/>
       <c r="J8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" s="27"/>
       <c r="N8" s="12" t="s">
@@ -922,7 +923,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -931,7 +932,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
